--- a/estimate.xlsx
+++ b/estimate.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,64 +491,42 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Flushing (Developing) Borewell (Code: GWD253)</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GI Covering for PVC Pipes</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2 HP 18 Stage 120-40 m head single phase pump including panel board (Code: GWD149)</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Providing and fixing G.I. pipes complete with G.I fittings: 65 mm dia nominal bore (Code: GWD034)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>820.981575</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>42.0 (For 40mm PVC)</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>34481.22615</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -558,30 +536,28 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>40 mm dia UPVC pipe (Code: GWD184)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Providing and fixing G.I. pipes complete with G.I fittings: 80 mm dia nominal bore (Code: GWD035)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1009.7055</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>42.0 (For 63mm PVC)</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
+        <v>42407.631</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -590,65 +566,42 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>14 mm thick nylon rope (Code: GWD180)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Concrete Filling for PVC Pipes</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Supply and drawing FRLS PVC insulated &amp; sheathed 650/1100 V grade 3 core copper conductor flat cable for submersible pump motor conforming to IS 694 part I 1990 as required including giving necessary connections of the following sizes.
-4 sq mm (Code: 90.6.6.3)</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level: 1:1/2:3 (cement : 11/2 coarse sand : 3 graded stone aggregate 20 mm nominal size) (Code: 4.1.2)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>9760.80429</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>cum</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.66 (22x0.2x0.15 - for 22 m of 63mm PVC)</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0</v>
+        <v>6442.130831400001</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -658,30 +611,28 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Borewell submersible pump erection charges upto 3 HP (Code: GWD045)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level: 1:1/2:3 (cement : 11/2 coarse sand : 3 graded stone aggregate 20 mm nominal size) (Code: 4.1.2)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>9760.80429</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>cum</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.05 (5x0.1x0.1 - for 5 m of 32mm PVC)</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>488.0402145</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -690,64 +641,42 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Providing and fixing gun metal non-return valve of approved quality (screwed end): 40 mm nominal bore Horizontal (Code: 18.19.3.1)</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Concrete Blocks for Supporting PVC Pipes</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>40 mm SS Adapter (Code: GWD193)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level: 1:1/2:3 (cement : 11/2 coarse sand : 3 graded stone aggregate 20 mm nominal size) (Code: 4.1.2)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>9760.80429</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>cum</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.54 (6 Nos of PCC blocks of size 1x0.3x0.3)</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>5270.8343166</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -757,26 +686,28 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Well Protection Cover (Code: GWD001)</t>
+          <t>Centering and shuttering including strutting, propping etc. and removal of form work for: Foundations, footings, bases for columns (Code: 4.3.1)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3800</v>
+        <v>386.158185</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>1</v>
+          <t>sqm</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7.2 (6x4 Nos of size 0.3x1)</t>
+        </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3800</v>
+        <v>2780.338932</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -786,26 +717,28 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Metallic Pump House of size 1.2 x 0.9 x 2 m (Code: GWD006)</t>
+          <t>12 mm cement plaster of mix: 1:4 ( 1 cement : 4 fine sand) (Code: 13.1.1)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>26000</v>
+        <v>369.76311</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1</v>
+          <t>sqm</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7.74 (6x4 Nos of size 0.3x1 and 6 Nos of size 0.3x0.3)</t>
+        </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>26000</v>
+        <v>2861.9664714</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -815,31 +748,28 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>S &amp; F Motor starters of the following ratings
-Submersible pump controllers with ammeter,DPMCB for single phase 2 HP submersible motor pumps (DOL) (Code: 90.14.28.13)</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>White washing with lime to give an even shade: New work (three or more coats) (Code: 13.37.1)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>40.662675</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7.74 (6x4 Nos of size 0.3x1 and 6 Nos of size 0.3x0.3)</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>314.7291045</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -848,56 +778,40 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Estimate For Fabricated Angle Iron Structure To Support 3000 Litres Capacity Water Tank At 4 m Height (Code: GWD003)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>62000</v>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>62000</v>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Additional PVC Pipes required to compensate wastage</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Providing and placing on terrace (at all floor levels) polyethylene water storage tank :ISI 12701 marked, with cover and suitable locking arrangement and making necessary holes for inlet, outlet and overflow pipes but without fittings and the base support for tank. (Code: 18.48)</t>
+          <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement &amp; testing of joints complete as per direction of Engineer in Charge. 40 mm dia 10 KGF/cm2 (Code: GWD040)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>8.41</v>
+        <v>155.04387</v>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Litre</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>25230</v>
+        <v>930.2632200000002</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -907,30 +821,26 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>PVC Tank connector 40 mm (Code: GWD111)</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement &amp; testing of joints complete as per direction of Engineer in Charge.63 mm dia 10 KGF/cm2 (Code: GWD361)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>243.20387</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>meter</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>1459.22322</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -939,423 +849,76 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>PVC Tank connector 50 mm (Code: GWD112)</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+        <v>97436.38346039999</v>
+      </c>
+      <c r="G17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>PVC Ball valve 40 mm (Code: GWD118)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>GST (18%)</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+        <v>17538.55</v>
+      </c>
+      <c r="G18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>PVC Ball valve 50 mm (Code: GWD119)</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Unforeseen (5%)</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+        <v>4871.82</v>
+      </c>
+      <c r="G19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 50 mm dia 10Kgf/cm2 (Code: 50.18.9.6.1)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Grand Total Rounded To Next 1000</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching refilling &amp; testing of joints complete as per direction of Engineer in Charge 40 mm dia 10Kgf/cm2 (Code: 50.18.9.5.1)</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Providing and fixing PVC pipes includings jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge.32 mm dia 10.Kgf/cm2 (Code: 50.18.9.4.1)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Providing and fixing PVC pipes includes jointing of pipes with one step PVC solvent cement, trenching, refilling &amp; testing of joints complete as per direction of Engineer in Charge. 25 mm dia 10KGF/cm2 (Code: 50.18.9.3.2)</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Excavating trenches of required width for pipes, cables, etc including excavation for sockets, and dressing of sides, ramming of bottoms, depth up to 1.5 m, including getting out the excavated soil. and then returning the soil as required, in layers not exceeding 20 cm in depth, including consolidating each deposited layer by ramming, watering, etc. and disposing of surplus excavated soil as directed, within a lead of 50 m: All kinds of soil Pipes, cables etc, not exceeding 80 mm dia (Code: 2.10.1.1)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>221.83</v>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>metre</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>22183</v>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Hydrants with tap ( for individual families of size 0.6 X 0.3 M platform) (Code: GWD058)</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Demolishing cement concrete manually / by mechanical means including disposal of material within 50 metres lead as per direction of Engineer - in-Charge. Nominal concrete 1:3:6 or richer mix (i/c equivalent design mix) (Code: 15.2.1)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>1742.42</v>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>6969.68</v>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>Providing and laying in position cement concrete of specified grade excluding the cost of centering and shuttering - All work up to plinth level: 1:2:4 )1 cement : 2 coarse sand : 4 graded stone aggregate 40 mm nominal size) (Code: 4.1.4)</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>6273.9</v>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>25095.6</v>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n">
-        <v>171278.28</v>
-      </c>
-      <c r="G28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>GST (18%)</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n">
-        <v>30830.09</v>
-      </c>
-      <c r="G29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Unforeseen (5%)</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n">
-        <v>8563.91</v>
-      </c>
-      <c r="G30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Grand Total Rounded To Next 1000</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n">
-        <v>211000</v>
-      </c>
-      <c r="G31" s="2" t="n"/>
+        <v>120000</v>
+      </c>
+      <c r="G20" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A29:E29"/>
+  <mergeCells count="9">
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
